--- a/git/Orbit/test-data/LoginData.xlsx
+++ b/git/Orbit/test-data/LoginData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -153,13 +153,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -576,7 +580,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="78">
+      <c r="C2" t="s" s="82">
         <v>7</v>
       </c>
     </row>
@@ -587,7 +591,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="79">
+      <c r="C3" t="s" s="83">
         <v>7</v>
       </c>
     </row>
